--- a/teaching/traditional_assets/database/data/malaysia/malaysia_green_renewable_energy.xlsx
+++ b/teaching/traditional_assets/database/data/malaysia/malaysia_green_renewable_energy.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -590,32 +590,35 @@
           <t>Green &amp; Renewable Energy</t>
         </is>
       </c>
+      <c r="D2">
+        <v>0.259</v>
+      </c>
       <c r="G2">
-        <v>-5.161290322580645</v>
+        <v>-0.06570985259891388</v>
       </c>
       <c r="H2">
-        <v>-5.161290322580645</v>
+        <v>-0.06570985259891388</v>
       </c>
       <c r="I2">
-        <v>-6.522178592170038</v>
+        <v>-0.09844840961986034</v>
       </c>
       <c r="J2">
-        <v>-6.522178592170038</v>
+        <v>-0.05851389748385667</v>
       </c>
       <c r="K2">
-        <v>-2.64</v>
+        <v>0.48</v>
       </c>
       <c r="L2">
-        <v>-7.096774193548388</v>
+        <v>0.03723816912335143</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00372093023255814</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -624,79 +627,82 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2">
+        <v>0.08</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1.704</v>
+      </c>
+      <c r="V2">
+        <v>0.07925581395348837</v>
+      </c>
+      <c r="W2">
+        <v>0.03397767030253138</v>
+      </c>
+      <c r="X2">
+        <v>0.08768113943071758</v>
+      </c>
+      <c r="Y2">
+        <v>-0.05370346912818619</v>
+      </c>
+      <c r="Z2">
+        <v>0.4226645243794472</v>
+      </c>
+      <c r="AA2">
+        <v>-0.02239239758535524</v>
+      </c>
+      <c r="AB2">
+        <v>0.05554258334514822</v>
+      </c>
+      <c r="AC2">
+        <v>-0.07793498093050347</v>
+      </c>
+      <c r="AD2">
+        <v>17.04</v>
+      </c>
+      <c r="AE2">
         <v>0</v>
       </c>
-      <c r="U2">
-        <v>0.013</v>
-      </c>
-      <c r="V2">
-        <v>0.0007514450867052023</v>
-      </c>
-      <c r="W2">
-        <v>-0.2357142857142857</v>
-      </c>
-      <c r="X2">
-        <v>0.06938191768524318</v>
-      </c>
-      <c r="Y2">
-        <v>-0.3050962033995289</v>
-      </c>
-      <c r="Z2">
-        <v>0.02138760457903518</v>
-      </c>
-      <c r="AA2">
-        <v>-0.1394937767231811</v>
-      </c>
-      <c r="AB2">
-        <v>0.05922267571301075</v>
-      </c>
-      <c r="AC2">
-        <v>-0.1987164524361919</v>
-      </c>
-      <c r="AD2">
-        <v>5.29</v>
-      </c>
-      <c r="AE2">
-        <v>2.44625218143627</v>
-      </c>
       <c r="AF2">
-        <v>7.73625218143627</v>
+        <v>17.04</v>
       </c>
       <c r="AG2">
-        <v>7.72325218143627</v>
+        <v>15.336</v>
       </c>
       <c r="AH2">
-        <v>0.3090020073840165</v>
+        <v>0.4421380384016606</v>
       </c>
       <c r="AI2">
-        <v>0.4063957604522854</v>
+        <v>0.5247921157991993</v>
       </c>
       <c r="AJ2">
-        <v>0.3086430223152942</v>
+        <v>0.4163318492778803</v>
       </c>
       <c r="AK2">
-        <v>0.4059901066218825</v>
+        <v>0.4984723395956575</v>
       </c>
       <c r="AL2">
-        <v>0.38</v>
+        <v>1.035</v>
       </c>
       <c r="AM2">
-        <v>0.38</v>
+        <v>-0.4859999999999998</v>
       </c>
       <c r="AN2">
-        <v>-3.291848164281269</v>
+        <v>-24.87591240875912</v>
       </c>
       <c r="AO2">
-        <v>-5.921052631578947</v>
+        <v>-1.226086956521739</v>
       </c>
       <c r="AP2">
-        <v>-4.806006335679073</v>
+        <v>-22.38832116788321</v>
       </c>
       <c r="AQ2">
-        <v>-5.921052631578947</v>
+        <v>2.611111111111112</v>
       </c>
     </row>
     <row r="3">
@@ -707,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Green &amp; Smart Holdings plc (AIM:GSH)</t>
+          <t>Timah Resources Limited (ASX:TML)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -715,32 +721,35 @@
           <t>Green &amp; Renewable Energy</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.259</v>
+      </c>
       <c r="G3">
-        <v>-5.161290322580645</v>
+        <v>-0.006474820143884892</v>
       </c>
       <c r="H3">
-        <v>-5.161290322580645</v>
+        <v>-0.006474820143884892</v>
       </c>
       <c r="I3">
-        <v>-6.522178592170038</v>
+        <v>-0.01366906474820144</v>
       </c>
       <c r="J3">
-        <v>-6.522178592170038</v>
+        <v>-0.008280298837852794</v>
       </c>
       <c r="K3">
-        <v>-2.64</v>
+        <v>0.126</v>
       </c>
       <c r="L3">
-        <v>-7.096774193548388</v>
+        <v>0.09064748201438849</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>0.08</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -749,79 +758,207 @@
         <v>-0</v>
       </c>
       <c r="R3">
+        <v>-0</v>
+      </c>
+      <c r="S3">
+        <v>0.08</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1.63</v>
+      </c>
+      <c r="V3">
+        <v>0.2910714285714286</v>
+      </c>
+      <c r="W3">
+        <v>0.03662790697674419</v>
+      </c>
+      <c r="X3">
+        <v>0.114860127763094</v>
+      </c>
+      <c r="Y3">
+        <v>-0.07823222078634984</v>
+      </c>
+      <c r="Z3">
+        <v>0.09985632183908046</v>
+      </c>
+      <c r="AA3">
+        <v>-0.0008268401856763925</v>
+      </c>
+      <c r="AB3">
+        <v>0.05803958665750052</v>
+      </c>
+      <c r="AC3">
+        <v>-0.05886642684317692</v>
+      </c>
+      <c r="AD3">
+        <v>11.7</v>
+      </c>
+      <c r="AE3">
         <v>0</v>
       </c>
-      <c r="S3">
+      <c r="AF3">
+        <v>11.7</v>
+      </c>
+      <c r="AG3">
+        <v>10.07</v>
+      </c>
+      <c r="AH3">
+        <v>0.6763005780346821</v>
+      </c>
+      <c r="AI3">
+        <v>0.8339272986457591</v>
+      </c>
+      <c r="AJ3">
+        <v>0.6426292278238673</v>
+      </c>
+      <c r="AK3">
+        <v>0.8120967741935484</v>
+      </c>
+      <c r="AL3">
+        <v>0.646</v>
+      </c>
+      <c r="AM3">
+        <v>-0.13</v>
+      </c>
+      <c r="AN3">
+        <v>-1300</v>
+      </c>
+      <c r="AO3">
+        <v>-0.02941176470588235</v>
+      </c>
+      <c r="AP3">
+        <v>-1118.888888888889</v>
+      </c>
+      <c r="AQ3">
+        <v>0.1461538461538461</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BiON plc (AIM:BION)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Green &amp; Renewable Energy</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>-0.0728695652173913</v>
+      </c>
+      <c r="H4">
+        <v>-0.0728695652173913</v>
+      </c>
+      <c r="I4">
+        <v>-0.108695652173913</v>
+      </c>
+      <c r="J4">
+        <v>-0.06336443650320957</v>
+      </c>
+      <c r="K4">
+        <v>0.354</v>
+      </c>
+      <c r="L4">
+        <v>0.03078260869565217</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>-0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>-0</v>
+      </c>
+      <c r="S4">
         <v>0</v>
       </c>
-      <c r="U3">
-        <v>0.013</v>
-      </c>
-      <c r="V3">
-        <v>0.0007514450867052023</v>
-      </c>
-      <c r="W3">
-        <v>-0.2357142857142857</v>
-      </c>
-      <c r="X3">
-        <v>0.06938191768524318</v>
-      </c>
-      <c r="Y3">
-        <v>-0.3050962033995289</v>
-      </c>
-      <c r="Z3">
-        <v>0.02138760457903518</v>
-      </c>
-      <c r="AA3">
-        <v>-0.1394937767231811</v>
-      </c>
-      <c r="AB3">
-        <v>0.05922267571301075</v>
-      </c>
-      <c r="AC3">
-        <v>-0.1987164524361919</v>
-      </c>
-      <c r="AD3">
-        <v>5.29</v>
-      </c>
-      <c r="AE3">
-        <v>2.44625218143627</v>
-      </c>
-      <c r="AF3">
-        <v>7.73625218143627</v>
-      </c>
-      <c r="AG3">
-        <v>7.72325218143627</v>
-      </c>
-      <c r="AH3">
-        <v>0.3090020073840165</v>
-      </c>
-      <c r="AI3">
-        <v>0.4063957604522854</v>
-      </c>
-      <c r="AJ3">
-        <v>0.3086430223152942</v>
-      </c>
-      <c r="AK3">
-        <v>0.4059901066218825</v>
-      </c>
-      <c r="AL3">
-        <v>0.38</v>
-      </c>
-      <c r="AM3">
-        <v>0.38</v>
-      </c>
-      <c r="AN3">
-        <v>-3.291848164281269</v>
-      </c>
-      <c r="AO3">
-        <v>-5.921052631578947</v>
-      </c>
-      <c r="AP3">
-        <v>-4.806006335679073</v>
-      </c>
-      <c r="AQ3">
-        <v>-5.921052631578947</v>
+      <c r="U4">
+        <v>0.074</v>
+      </c>
+      <c r="V4">
+        <v>0.004654088050314465</v>
+      </c>
+      <c r="W4">
+        <v>0.03132743362831858</v>
+      </c>
+      <c r="X4">
+        <v>0.06050215109834113</v>
+      </c>
+      <c r="Y4">
+        <v>-0.02917471747002255</v>
+      </c>
+      <c r="Z4">
+        <v>0.6937322796645956</v>
+      </c>
+      <c r="AA4">
+        <v>-0.0439579549850341</v>
+      </c>
+      <c r="AB4">
+        <v>0.05304558003279593</v>
+      </c>
+      <c r="AC4">
+        <v>-0.09700353501783002</v>
+      </c>
+      <c r="AD4">
+        <v>5.34</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>5.34</v>
+      </c>
+      <c r="AG4">
+        <v>5.266</v>
+      </c>
+      <c r="AH4">
+        <v>0.251412429378531</v>
+      </c>
+      <c r="AI4">
+        <v>0.289587852494577</v>
+      </c>
+      <c r="AJ4">
+        <v>0.2487952376452802</v>
+      </c>
+      <c r="AK4">
+        <v>0.2867254709789829</v>
+      </c>
+      <c r="AL4">
+        <v>0.389</v>
+      </c>
+      <c r="AM4">
+        <v>-0.356</v>
+      </c>
+      <c r="AN4">
+        <v>-7.899408284023668</v>
+      </c>
+      <c r="AO4">
+        <v>-3.213367609254499</v>
+      </c>
+      <c r="AP4">
+        <v>-7.789940828402367</v>
+      </c>
+      <c r="AQ4">
+        <v>3.51123595505618</v>
       </c>
     </row>
   </sheetData>
